--- a/outputs/MYRTLE1.xlsx
+++ b/outputs/MYRTLE1.xlsx
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi's motivation to attend the conference would be influenced by knowing what is being presented there. This subgoal aligns with her need to gather comprehensive information (Information Processing Style) about the conference content to make an informed decision. Understanding the presentations will help her decide if attending the conference is worthwhile.</t>
+Why: Abi is deciding whether to attend the conference, and knowing what is being presented is crucial for making that decision. This aligns with her motivation to accomplish her tasks effectively. Additionally, her comprehensive information processing style would lead her to gather detailed information about the conference presentations to make an informed decision.</t>
         </is>
       </c>
     </row>
@@ -434,8 +434,8 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: Abi's information processing style is comprehensive, and scrolling down to gather more information is aligned with this facet. The page layout is clear, and the initial content indicates that more details about the conference (including the program and keynotes) can be found by scrolling. This gives Abi the confidence to take this action.</t>
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: Scrolling down to find more information aligns with Abi's comprehensive information processing style. The page layout is clear, and the information about the conference is prominently displayed, making it easy for Abi to understand that she needs to scroll down to find more details. This action does not require any unfamiliar computing tasks, so it aligns with her learning style of following a process.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While Abi will see some information about the keynote speakers and a schedule overview after scrolling, it's not comprehensive enough for her information processing style. Abi prefers detailed information and may not feel confident that she has gathered all necessary details about the conference presentations. The page does not provide exhaustive details about all sessions, papers, and events, which are crucial for Abi to make an informed decision. Therefore, she may feel unsure if she has made progress toward her goal.</t>
+Why: While scrolling down provides some information about the conference, it does not give a comprehensive overview of all the presentations. Abi's comprehensive information processing style means she needs detailed information to feel confident in her decision. The page provides some keynotes and a schedule overview, but it lacks detailed information about all the sessions and presentations. This might leave Abi uncertain if she has all the necessary information to make an informed decision. Additionally, Abi's low computer self-efficacy might make her hesitant to explore further if she doesn't find all the information immediately.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: The page layout and content at the top provide clear indications that more information is available by scrolling down. Sections like "Program at POPL 2019 and Co-located Events" and the visible schedule overview suggest that relevant details can be found further down the page. This aligns with Abi's comprehensive information processing style, giving her the confidence to proceed with scrolling to gather more details.</t>
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: The page layout is clear and provides a logical flow of information. The presence of keynotes and a schedule overview at the top of the page indicates that more detailed information can be found by scrolling down. This aligns with Abi's comprehensive information processing style, as she would naturally scroll down to gather more information. Additionally, this action does not require any unfamiliar computing tasks, making it straightforward for Abi to take this step.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After scrolling down, Abi will see some information about the keynote speakers and a high-level schedule overview. However, for someone with a comprehensive information processing style like Abi, this may not be sufficient to feel confident about knowing what is being presented at the conference. The page lacks detailed information about all sessions, papers, and events, which Abi would need to make a well-informed decision. Therefore, she may not feel that she has made significant progress toward her goal.</t>
+Why: After scrolling down, Abi will find some information about keynotes and a schedule overview, but this does not provide a comprehensive list of all presentations at the conference. Abi's comprehensive information processing style means she needs detailed and complete information to feel confident in her decision. The page does not provide all the necessary details about the conference presentations, which might leave Abi uncertain if she has all the information she needs. Additionally, Abi's low computer self-efficacy might make her hesitant to explore further if she doesn't find all the information immediately, leading to frustration and a sense of not making progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -471,16 +471,16 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The page has a clearly labeled link, "Program at POPL 2019," which indicates that it will lead to more detailed information about the conference program. This aligns with Abi's comprehensive information processing style and her preference for process-oriented learning, as she expects to find more detailed information by following the link. The link's text provides a clear indication of its purpose, making it straightforward for Abi to know what to do at this step.</t>
+Why: The link "Program of POPL 2019" is clearly labeled and prominently placed at the top of the page, making it easy for Abi to identify it as a relevant link to click for more information. This aligns with her comprehensive information processing style, as she would look for detailed information about the conference program. Additionally, clicking on a clearly labeled link is a straightforward action that does not require any unfamiliar computing tasks, making it suitable for Abi's learning style.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: After clicking the "Program of POPL 2019" link, Abi will land on a page that provides a detailed and comprehensive list of the presentations, sessions, and events scheduled for the conference. This detailed program aligns with Abi's need for comprehensive information to make an informed decision. The structured layout and extensive content will confirm to Abi that she did the right thing and is making progress toward her goal of finding out what is being presented at the conference. This detailed information will help her decide whether attending the conference is worthwhile.</t>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: While Abi will know she is making progress toward her goal by landing on a page with detailed information about the conference program, the sheer volume of information presented in a long, continuous list can be overwhelming. Abi's comprehensive information processing style means she needs to process all this information to feel confident in her decision, but the format may make it difficult for her to find specific details efficiently. Additionally, her low computer self-efficacy might make her hesitant to navigate through such a dense page, leading to frustration and uncertainty about whether she has gathered all the necessary information.</t>
         </is>
       </c>
     </row>
@@ -488,8 +488,8 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: The page provides a detailed, structured list of sessions and presentations, which aligns with Abi's comprehensive information processing style. The extensive content suggests there is more information available by scrolling, and the layout is consistent, making it clear for Abi that scrolling down will reveal additional details. This will motivate her to scroll down to gather all the necessary information about the conference presentations.</t>
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: The page layout is straightforward, and the information is presented in a list format. Abi's comprehensive information processing style means she is likely to scroll down to gather all the details. The action of scrolling down is simple and does not require any unfamiliar computing tasks, making it suitable for Abi's learning style. The page is good enough for Abi to take this action as it aligns with her method of processing information comprehensively.</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: Although the page provides a detailed list of sessions and presentations, the sheer volume of information might be overwhelming for Abi. She may struggle to find specific details quickly due to the extensive and densely packed content. Abi's comprehensive information processing style requires organized and easily navigable information, and this page might not meet those needs effectively. Additionally, her low computer self-efficacy means she might doubt whether she has found all the relevant information and feel uncertain about her progress toward her goal. Therefore, she might not feel confident that she has done the right thing or gathered all the information she needs.</t>
+Why: While scrolling down will provide Abi with a lot of information about the conference program, the format is overwhelming due to the sheer volume of details presented in a long, continuous list. Abi's comprehensive information processing style means she needs to process all this information to feel confident in her decision, but the dense format may make it difficult for her to efficiently find and understand specific details. Additionally, her low computer self-efficacy might make her hesitant to navigate through such a dense page, leading to frustration and uncertainty about whether she has gathered all the necessary information. This could leave her feeling unsure if she is making progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
         <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page is densely packed with information, and the term "distinguished paper" is not clearly highlighted or explained, which might be confusing for Abi. Given her low computer self-efficacy and preference for process-oriented learning, she might not feel confident in identifying and clicking on the correct link or entry without explicit instructions or clear indications. The page does not provide enough guidance or context for her to know what to do at this step.</t>
+Why: The page is very dense with information, and it is not immediately clear which links or sections are clickable or what specific actions Abi should take to find the distinguished papers. Abi's low computer self-efficacy might make her hesitant to click on links without clear indications of what they will lead to. Additionally, Abi prefers process-oriented learning and clear instructions, which are not provided on this page. The lack of clear guidance and the overwhelming amount of information may make it difficult for Abi to confidently know what to do next.</t>
         </is>
       </c>
     </row>
@@ -515,8 +515,8 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: After clicking on the distinguished paper, Abi will be presented with a detailed pop-up that includes specific information about the paper, including its title, abstract, and the names and affiliations of the authors. This level of detail aligns with Abi's comprehensive information processing style and will help her feel confident that she is making progress toward her goal of understanding what is being presented at the conference. The clear and focused presentation of information in the pop-up will provide her with the necessary details, confirming that she did the right thing.</t>
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: After clicking on the distinguished paper, Abi will see a detailed pop-up with comprehensive information about the paper, including the title, authors, and a summary. This aligns with her comprehensive information processing style, as it provides the detailed information she needs to make an informed decision. The clear presentation of information in the pop-up format makes it easy for Abi to understand that she is making progress toward her goal and has found the specific details she was looking for. This action also aligns with her learning style, as it provides structured and clear information without requiring unfamiliar computing tasks.</t>
         </is>
       </c>
     </row>
@@ -525,16 +525,16 @@
         <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: Abi might not readily know how to navigate back to the main page from this pop-up window. The page does not provide clear instructions or a visible link to return to the main page, which could confuse Abi, especially given her low computer self-efficacy. She might not feel confident in closing the pop-up or finding her way back to the main page without explicit guidance. This lack of clear navigation could hinder her progress and make her uncertain about the next steps.</t>
+Why: The page does not provide clear instructions or a straightforward way to navigate back to the main page to check the tutorial. Abi's low computer self-efficacy might make her hesitant to explore or click on links without clear indications of what they will lead to. Additionally, Abi prefers process-oriented learning and clear instructions, which are not provided on this page. The lack of clear guidance and the overwhelming amount of information may make it difficult for Abi to confidently know what to do next.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: Returning to the main page to check the tutorial section might not provide Abi with clear feedback that she is making progress toward her goal. Although the main page has some information, it may not be comprehensive enough for Abi's information processing style. Additionally, Abi may feel uncertain about whether she has gathered all the relevant details due to her low computer self-efficacy. The main page does not offer a detailed overview of the tutorials, making her doubt if she has done the right thing and if she has all the necessary information.</t>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: If Abi goes back to the main page, she will see the "Program of POPL 2019" link and other relevant links prominently displayed. This aligns with her comprehensive information processing style, as she can easily navigate to the tutorial section from the main page. The page layout is clear and provides structured information, which suits Abi's preference for process-oriented learning. By returning to the main page, Abi will know she is making progress toward her goal and can find the information she needs about the tutorials.</t>
         </is>
       </c>
     </row>
@@ -542,8 +542,8 @@
       <c r="A14" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: The page clearly lists "TutorialFest" as one of the events, and it is prominently displayed in the lower section of the page. This aligns with Abi's comprehensive information processing style, as she can easily identify the link related to the tutorials. The page's layout and labeling make it evident that clicking on the "TutorialFest" link will provide more detailed information about the tutorials being presented at the conference, which helps Abi know what to do next.</t>
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: The "TutorialFest" link is clearly labeled and prominently displayed on the main page, making it easy for Abi to identify it as a relevant link to click for more information about the tutorials. This aligns with her comprehensive information processing style, as she would look for detailed information about the conference program. Additionally, clicking on a clearly labeled link is a straightforward action that does not require any unfamiliar computing tasks, making it suitable for Abi's learning style. The page is good enough for Abi to take this action as it provides clear guidance on where to find the information she needs.</t>
         </is>
       </c>
     </row>
@@ -552,7 +552,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking the TutorialFest link, Abi lands on a page that does not immediately present detailed information about the tutorials. The page layout is sparse, and the relevant content (such as the list of tutorials) is hidden behind additional clicks. Given Abi's need for comprehensive information and her low computer self-efficacy, she may not feel confident that she is making progress toward her goal. The lack of immediate and detailed information could cause her to doubt whether she did the right thing and whether she has all the necessary information about the tutorials.</t>
+Why: After clicking on the TutorialFest link, Abi lands on a page that does not immediately provide detailed information about the tutorials. Instead, it shows some important dates and the evaluation committee, which might not be what Abi is looking for. Abi's comprehensive information processing style means she needs detailed and specific information to feel confident in her decision. The lack of immediate, relevant information might leave her uncertain if she is making progress toward her goal. Additionally, her low computer self-efficacy might make her hesitant to explore further if she doesn't find the necessary information right away, leading to frustration and a sense of not making progress.</t>
         </is>
       </c>
     </row>

--- a/outputs/MYRTLE1.xlsx
+++ b/outputs/MYRTLE1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,233 +424,116 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Based on the image, finding out what's being presented at the conference would be a logical step for anyone considering whether to attend POPL 2019. The image shows:
-1. A conference schedule overview with various tracks and sessions (shown in a block diagram with blue and orange sections labeled "POPL")
-2. A list of keynote speakers with their photos
-3. A "TutorialFest" section showing several speakers
-4. Multiple major tech company sponsors including AWS, Facebook, Microsoft, and Uber
-The schedule overview and speakers list would help Abi evaluate the conference content and determine if the presentations align with her research interests and if attending would be valuable. As a second author of an accepted paper, seeing the full program would help her decide if there are other talks and sessions she'd want to attend beyond just her paper's presentation.
-So yes, reviewing what's being presented would be a natural and important step in deciding whether to attend the conference, especially for someone who isn't required to attend but is considering it.</t>
+          <t>Answer: YES
+Facets:
+1. Information Processing Style
+2. Motivations
+3. Attitude Towards Risk
+Why: This subgoal aligns with ABI's characteristics because:
+- As per her information processing style, she wants to gather comprehensive information before making a decision about attending
+- She is motivated to understand what content will be presented since this directly relates to her purpose (being a paper author)
+- Given her risk-averse nature, she would want to thoroughly understand the conference content before committing time and resources to attend
+- The page shows a schedule overview and keynote speakers which would help her evaluate if attending would be worthwhile for her research interests
+The subgoal of finding out what's being presented is a logical first step for ABI to make an informed decision about conference attendance, especially given her comprehensive information gathering approach and need to justify the time investment.</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Looking at this scenario where Abi needs to find out what's being presented at POPL 2019, let's analyze if this page helps her take this action:
-The page appears to be the main conference page for POPL 2019, which includes:
-1. A schedule overview diagram showing different tracks/sessions (POPL, VMCAI, CPP, etc.)
-2. A list of keynote speakers with their headshots
-3. Tutorial/fest presenters
-4. Sponsor logos (including AWS, Facebook, Microsoft, etc.)
-5. A header image showing what appears to be a beachfront conference venue
-For Abi's goal of finding out what's being presented:
-- The page provides a starting point with the schedule overview
-- There appears to be sections for keynotes and tutorials
-- However, it's not immediately clear where to find the full list of accepted papers or detailed program
-Potential Issues for Abi:
-1. The schedule overview is somewhat abstract and doesn't show specific presentations
-2. She might need to click through to find detailed session information
-3. The page requires some exploration to find the complete program
-Recommendation: While Abi can start here, she may need to look for additional navigation links to find the detailed conference program. The page could be more helpful if it had a clear "Program" or "Accepted Papers" link prominently displayed.
-Abi might feel uncertain about whether she's found all the relevant information since the content about presentations isn't immediately obvious on this landing page.</t>
+          <t>Answer: YES
+Facets:
+1. Information Processing Style
+2. Learning Style
+3. Computer Self-Efficacy
+Why:
+- Scrolling is a basic, familiar action that aligns with ABI's comfort level with technology she knows (good Computer Self-Efficacy for basic tasks)
+- The page clearly shows "POPL 2019" at the top and has visible content below, indicating more information is available by scrolling
+- This aligns with her process-oriented learning style as scrolling is a natural way to systematically read through information
+- The page layout follows a standard format with content flowing downward, which matches her information processing style of gathering comprehensive information
+- There are no complex technical requirements or unfamiliar interfaces to navigate - just basic scrolling which ABI would be comfortable with
+The action is straightforward and uses familiar technology behavior (scrolling), making it accessible for ABI's technological comfort level and comprehensive information gathering approach.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Looking at this image of the POPL 2019 conference website, Abi will have partial confidence that she's making progress, but may not get all the information needed from just this initial view. Here's why:
-1. The page shows:
-- A schedule overview diagram showing different tracks/sessions (POPL, PEPM, CoqPL, etc.)
-- A list of keynote speakers with headshots
-- Tutorial/talk presenters with headshots
-- Sponsor logos (including AWS, Facebook, Microsoft, etc.)
-2. However, to fully understand what's being presented, Abi would likely need to:
-- Click through to see detailed session schedules
-- Read paper titles and abstracts
-- Look at more specific program information
-The information visible on this landing page is fairly high-level and doesn't show the detailed content of presentations or papers. While it's a good starting point that confirms she's in the right place, Abi would need to navigate further into the site to fully evaluate the conference content and make an informed decision about attending.
-To fully achieve her subgoal of finding out what's being presented, Abi would need to look for and click on links to the detailed program or paper sessions, which isn't immediately apparent from just this view.</t>
+          <t>Answer: NO
+Facets:
+1. Information Processing Style
+2. Computer Self-Efficacy
+3. None of the Above (Information Overload/Lack of Clear Organization)
+Why:
+- While ABI can see a schedule overview diagram and keynote speakers, this information is not comprehensive enough for her information processing style
+- The schedule overview is presented in an abstract diagram with abbreviations (POPL, PEPM, CoqPL, etc.) which may be confusing given her low computer self-efficacy with technical terms
+- There's no clear detailed program or list of paper presentations visible, which is crucial information she needs as a paper author
+- The page shows keynote speakers but doesn't provide a clear way to see the full conference program or paper sessions
+- The information is fragmented and not organized in a way that would help ABI confirm she's found all the presentation information she needs
+- Given her comprehensive information processing style, she would not feel confident that she has gathered all the necessary information about presentations from this view
+ABI would likely feel uncertain about whether she has found all the relevant information about conference presentations, as the page doesn't provide the detailed program information she would need to make an informed decision.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Yes, Abi can take this action of scrolling down, and the page design supports this action well for several reasons:
-1. Visual Cues:
-- The page clearly shows there's more content below (partially visible content at the bottom)
-- The schedule overview diagram and keynote speaker section are partially visible, indicating more information below
-- There's a standard scrollbar on the right side of the page
-2. Information Structure:
-- The page starts with general conference information
-- Shows a schedule overview
-- Lists keynote speakers
-- The layout suggests there's more detailed program information below
-3. Abi's Information Processing Style:
-- As a comprehensive processor who likes to gather all available information before making decisions
-- The page allows her to methodically scroll through and review all conference content
-- She can process information at her own pace
-4. Risk Aversion Support:
-- Scrolling is a low-risk action
-- She can easily scroll back up if needed
-- No chance of losing information or making irreversible changes
-The page design makes it clear there's more content to explore below, and scrolling is an intuitive action for accessing this information, making it a comfortable action for someone with Abi's cognitive style who wants to thoroughly understand what's being presented at the conference.</t>
+          <t>Answer: YES
+Facets:
+1. Computer Self-Efficacy
+2. Learning Style
+3. Information Processing Style
+Why:
+- Scrolling is a basic, familiar computer action that ABI is comfortable with, aligning with her computer self-efficacy for familiar tasks
+- The page clearly shows there is more content below (visible partial content and standard webpage layout), indicating scrolling is needed to see more information
+- This matches her process-oriented learning style as scrolling allows systematic reading through information from top to bottom
+- The layout follows a conventional webpage format that ABI would be familiar with, showing more content exists below
+- Her comprehensive information processing style would naturally lead her to want to scroll to see all available information
+- There are no complex technical requirements - just basic scrolling which is within ABI's comfort zone with familiar technology
+The action is straightforward, uses familiar webpage navigation behavior, and there are clear visual cues that more content exists below, making it accessible for ABI's technological comfort level and methodical approach to gathering information.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Scrolling down on this POPL 2019 conference page would help Abi make progress toward understanding what's being presented at the conference. The page shows several key elements that would be useful for her decision-making:
-1. A schedule overview diagram showing different tracks and sessions (POPL, PEPM, CoqPL, etc.)
-2. A "Keynotes" section listing several keynote speakers for the conference
-3. A "TutorialFest" section showing various tutorial presenters
-4. The page also displays sponsor logos on the right side (including AWS, Facebook, Microsoft, etc.)
-By scrolling, Abi would definitely know she's making progress because:
-- She'll be able to see the conference structure
-- She can review the keynote topics and speakers
-- She can assess the tutorial content being offered
-- She'll get a sense of the conference's scope and quality from the sponsoring organizations
-This information would help Abi evaluate whether the conference content aligns with her interests and whether attending would be valuable for her as a paper co-author. So yes, scrolling down is the right action that will clearly show progress toward her goal of understanding what's being presented at POPL 2019.</t>
+          <t>Answer: NO
+Facets:
+1. Information Processing Style
+2. Computer Self-Efficacy
+3. None of the Above (Information Organization/Clarity)
+Why:
+- While scrolling reveals some information (schedule overview and keynotes), it doesn't provide the comprehensive program details ABI needs to make her decision
+- The schedule overview uses technical abbreviations (POPL, PEPM, CoqPL) without clear explanations, which would make ABI uncomfortable given her low computer self-efficacy
+- Her comprehensive information processing style requires complete information about presentations, paper sessions, and program details, which are not clearly presented
+- The information shown is fragmented and doesn't provide:
+  * A detailed list of paper presentations
+  * Clear session topics and times
+  * Where her paper fits in the program
+- There's no clear indication that she has found all the relevant information about presentations
+- The layout and organization don't provide clear confirmation that she has accessed all the necessary information to achieve her goal
+ABI would likely feel uncertain about whether she has found all the information she needs about the conference presentations, as the page doesn't provide the detailed, well-organized program information she would need for her comprehensive decision-making process.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Looking at this page for POPL 2019, Abi should be able to easily find information about the conference program. The page shows:
-1. A schedule overview diagram showing different tracks/sessions (POPL, PEPM, CoqPL, etc.)
-2. A list of keynote speakers with their images
-3. Tutorial/educational sessions
-4. Sponsor information on the right side
-5. Navigation menu options at the top
-For Abi's goal of finding out what's being presented, this page provides a good starting point, but she may need to click through to see more detailed program information. Given that Abi tends to be comprehensive and likes to gather all information before proceeding:
-- The schedule overview provides a good high-level view
-- The keynote section shows who will be giving major talks
-- However, she might want to see more specific details about individual paper sessions and presentations
-While this page gives a good overview, Abi would likely want to find a more detailed program schedule showing specific papers and time slots to make her decision about attending. The page seems well-organized for navigation, so she should be able to find more detailed program information through the available links and menus.
-So yes, Abi would know what to do at this step, as the page provides clear navigation options to find more program details, which aligns with her methodical information-gathering approach. However, she may need to take additional steps to get the complete program information she needs for making her decision.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Based on the image shown, clicking on the distinguished paper (marked with "DISTINGUISHED PAPER" tag) would show Abi detailed information about the presentation "Formal Probabilistic Methods for Combinatorial Structures using the Lovász Local Lemma" by researchers from the University of Sheffield and University of Cambridge.
-Yes, Abi would know they're making progress because:
-1. The pop-up window provides clear, detailed information about the paper's content
-2. It shows a formal abstract explaining the research focus on probabilistic methods and combinatorial mathematics
-3. The presentation details include:
-   - Time and date (Mon 15 Jan 2024 14:30 - 15:00)
-   - Location (Kelvin Lecture)
-   - Speaker information and affiliations
-   - A pre-print option is available
-This information helps Abi:
-- Understand the technical content being presented
-- Assess if this topic aligns with their research interests
-- Plan their schedule if they decide to attend
-- Access the paper beforehand through the pre-print option
-However, to get a complete picture of the conference, Abi would need to look at other sessions and papers as well, as this is just one presentation from the program.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Based on the conference program schedule shown in the image, Abi can easily explore what's being presented at the conference. The interface is well-structured with:
-1. Clear time slots and session types (Talks, Tutorials, etc.)
-2. Detailed information including:
-   - Session titles
-   - Speaker names and affiliations
-   - Room locations
-   - Duration of each session
-   - Categories/tracks (marked with different colors)
-The page also shows helpful features like:
-- Expandable details (as shown in the popup window)
-- Labels indicating special sessions (like "DISTINGUISHED PAPER")
-- Pre-print availability links
-- Clear organization by tracks and parallel sessions
-For Abi, who tends to be comprehensive and needs information security before proceeding, this layout provides:
-- Complete information to make an informed decision
-- Easy navigation to explore different sessions
-- Clear context about what each session covers
-- Ability to plan which sessions would be most valuable
-So yes, Abi would be able to effectively explore the program as:
-1. The information is comprehensive
-2. The structure is clear and systematic
-3. The interface allows for methodical exploration
-4. She can thoroughly review all options before making decisions
-The page provides sufficient detail for Abi's typically comprehensive approach to information gathering.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Looking at the POPL 2019 conference webpage, Abi can see a clear schedule overview showing various tracks and sessions like VMCAI, PEPM, CPP, and the main POPL track in the center. The page also displays a list of keynote speakers and tutorials.
-To evaluate whether Abi will know she's making progress:
-Yes, Abi will know she's making progress because:
-1. The page clearly shows the conference program structure
-2. There's a dedicated "TutorialFest" section visible on the page
-3. The schedule overview provides a visual timeline of events
-4. The page includes information about keynote presentations
-5. The layout is organized with clear sections and headings
-Additionally, the page shows sponsor logos (including AWS, Facebook, Microsoft, etc.) and has what appears to be a beach location photo at the top.
-However, to get complete information about specific presentations, Abi might need to:
-- Click into individual sessions
-- Look for detailed schedules
-- Check paper titles and abstracts
-So while this page provides a good overview that confirms she's on the right track, she may need to navigate further to get all the specific presentation details she needs to make her decision about attending.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Looking at the POPL 2019 conference page, I can analyze if Abi can effectively find information about presentations through the tutorialfest link:
-1. Layout Assessment:
-- The page has a clear schedule overview diagram showing different tracks including POPL
-- There's a dedicated "TutorialFest" section with several listed tutorials
-- The page shows sponsor logos on the right and a beach/hotel image at the top
-2. For Abi's needs:
-- The tutorialfest links are clearly visible and appear clickable
-- The layout suggests there will be more detailed information behind these links
-- Each tutorial appears to have its own entry with a preview image and title
-3. Potential Challenges:
-- There's no immediate description of what "TutorialFest" contains
-- Abi might need to click multiple tutorials to understand the full scope
-- It's not immediately clear if these are separate from or part of the main conference
-Decision: Yes, Abi should be able to take this action because:
-- The tutorialfest links are visibly distinct and clickable
-- The hierarchical organization makes it clear these are part of the conference program
-- Even if uncertain, clicking these links is a logical step to learn more about the conference content
-However, the page could be more supportive by providing brief descriptions or tooltips about what TutorialFest entails to help users like Abi make more informed decisions about which links to explore.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Yes, clicking on the TutorialFest link would help Abi make progress toward her goal of finding out what's being presented at the conference, but it would only give her partial information. Here's why:
-1. Information Progress:
-- TutorialFest is just one part of the conference program
-- The page shows the tutorials evaluation committee and important dates
-- This only covers the tutorial portion, not the main conference presentations
-2. Feedback:
-- The page clearly shows she's in the TutorialFest section
-- She can see the navigation structure (About, Program, List of Tutorials, Call for Tutorials)
-- The dates and committee information confirm she's looking at relevant conference content
-3. What's Missing:
-- Main conference paper presentations
-- Other tracks like Research Papers, Student Research Competition
-- Workshops and other co-hosted events
-To get complete information about what's being presented, Abi should also:
-- Check the Research Papers track
-- Look at the main Program section
-- Explore other tracks listed in the navigation
-So while this action provides some useful information, Abi would need to explore other sections to get a complete picture of all presentations at POPL 2019 to make an informed decision about attending.</t>
+          <t>Answer: NO
+Facets:
+1. Computer Self-Efficacy
+2. Risk Aversion
+3. Learning Style
+4. None of the Above (Lack of Clear Indication)
+Why:
+- Looking at the page, there's no clearly visible or labeled "Program of POPL 2019" link that would be immediately obvious to ABI
+- Given her risk-averse nature, ABI would be hesitant to click on links without clear indication of where they lead
+- With her process-oriented learning style, ABI would expect clear instructions or indicators about how to find the program
+- Due to her low computer self-efficacy, she would not feel confident randomly exploring or clicking around to find the program
+- The page shows a schedule overview diagram and keynotes, but no obvious link or button labeled specifically for the full program
+- Without explicit guidance about where to find the program, ABI would likely feel uncertain about what action to take
+- The lack of clear navigation paths to the program information would make ABI uncomfortable about proceeding
+ABI would struggle to confidently identify where to click to find the program information, as there's no clear, explicitly labeled link or button for accessing the full conference program.</t>
         </is>
       </c>
     </row>

--- a/outputs/MYRTLE1.xlsx
+++ b/outputs/MYRTLE1.xlsx
@@ -452,7 +452,7 @@
 - This aligns with her process-oriented learning style as scrolling is a natural way to systematically read through information
 - The page layout follows a standard format with content flowing downward, which matches her information processing style of gathering comprehensive information
 - There are no complex technical requirements or unfamiliar interfaces to navigate - just basic scrolling which ABI would be comfortable with
-The action is straightforward and uses familiar technology behavior (scrolling), making it accessible for ABI's technological comfort level and comprehensive information gathering approach.</t>
+The action is straightforward and uses familiar technology behavior (scrolling), making it accessible for ABI to accomplish without risk or uncertainty.</t>
         </is>
       </c>
     </row>
@@ -466,12 +466,12 @@
 3. None of the Above (Information Overload/Lack of Clear Organization)
 Why:
 - While ABI can see a schedule overview diagram and keynote speakers, this information is not comprehensive enough for her information processing style
-- The schedule overview is presented in an abstract diagram with abbreviations (POPL, PEPM, CoqPL, etc.) which may be confusing given her low computer self-efficacy with technical terms
-- There's no clear detailed program or list of paper presentations visible, which is crucial information she needs as a paper author
-- The page shows keynote speakers but doesn't provide a clear way to see the full conference program or paper sessions
-- The information is fragmented and not organized in a way that would help ABI confirm she's found all the presentation information she needs
-- Given her comprehensive information processing style, she would not feel confident that she has gathered all the necessary information about presentations from this view
-ABI would likely feel uncertain about whether she has found all the relevant information about conference presentations, as the page doesn't provide the detailed program information she would need to make an informed decision.</t>
+- The schedule overview is presented in a complex diagram with abbreviations (POPL, PEPM, CoqPL, etc.) which may be unclear to ABI given her low computer self-efficacy with technical terms
+- There's no clear detailed program or list of paper presentations visible, which is crucial information since she's a paper author
+- The page shows keynote speakers but doesn't provide a clear way to see all presentations or sessions
+- The information is fragmented and not well-organized, which could overwhelm ABI as she tries to understand what's being presented
+- There's no clear indication that she's found all the conference content information she needs to make her decision
+While ABI has successfully scrolled down, she won't feel confident she's gathered all the necessary information about conference presentations due to the incomplete and potentially confusing presentation of the information.</t>
         </is>
       </c>
     </row>
@@ -484,13 +484,12 @@
 2. Learning Style
 3. Information Processing Style
 Why:
-- Scrolling is a basic, familiar computer action that ABI is comfortable with, aligning with her computer self-efficacy for familiar tasks
-- The page clearly shows there is more content below (visible partial content and standard webpage layout), indicating scrolling is needed to see more information
-- This matches her process-oriented learning style as scrolling allows systematic reading through information from top to bottom
-- The layout follows a conventional webpage format that ABI would be familiar with, showing more content exists below
-- Her comprehensive information processing style would naturally lead her to want to scroll to see all available information
+- Scrolling is a basic, familiar computer action that ABI is comfortable with, aligning with her computer self-efficacy for basic tasks
+- The page shows clear visual cues that there is more content below (partial view of schedule overview and content extending downward), which supports her process-oriented learning style
+- The layout follows a standard webpage format where content continues below the fold, which is familiar to ABI
+- Her comprehensive information processing style would naturally lead her to want to see all available content by scrolling down
 - There are no complex technical requirements - just basic scrolling which is within ABI's comfort zone with familiar technology
-The action is straightforward, uses familiar webpage navigation behavior, and there are clear visual cues that more content exists below, making it accessible for ABI's technological comfort level and methodical approach to gathering information.</t>
+The action of scrolling is straightforward, uses familiar technology behavior, and there are clear visual indicators that more content exists below, making it accessible for ABI to know this is the right action to take.</t>
         </is>
       </c>
     </row>
@@ -503,16 +502,13 @@
 2. Computer Self-Efficacy
 3. None of the Above (Information Organization/Clarity)
 Why:
-- While scrolling reveals some information (schedule overview and keynotes), it doesn't provide the comprehensive program details ABI needs to make her decision
+- While ABI has successfully scrolled down, the information presented doesn't provide the comprehensive details she needs according to her information processing style
 - The schedule overview uses technical abbreviations (POPL, PEPM, CoqPL) without clear explanations, which would make ABI uncomfortable given her low computer self-efficacy
-- Her comprehensive information processing style requires complete information about presentations, paper sessions, and program details, which are not clearly presented
-- The information shown is fragmented and doesn't provide:
-  * A detailed list of paper presentations
-  * Clear session topics and times
-  * Where her paper fits in the program
-- There's no clear indication that she has found all the relevant information about presentations
-- The layout and organization don't provide clear confirmation that she has accessed all the necessary information to achieve her goal
-ABI would likely feel uncertain about whether she has found all the information she needs about the conference presentations, as the page doesn't provide the detailed, well-organized program information she would need for her comprehensive decision-making process.</t>
+- There's no clear, detailed listing of paper presentations or sessions that would help her understand what's being presented
+- The information is fragmented between a high-level schedule diagram and keynote speakers, lacking the detailed program information she needs
+- Given her comprehensive information processing style, ABI would not feel confident she has found all the necessary information about presentations
+- The page doesn't provide a clear path to find more detailed information about the technical program or paper presentations
+While ABI has performed the scrolling action correctly, she won't feel she's made sufficient progress toward her goal because the information presented is not comprehensive enough and lacks clear organization to help her understand what's being presented at the conference.</t>
         </is>
       </c>
     </row>
@@ -523,17 +519,16 @@
 Facets:
 1. Computer Self-Efficacy
 2. Risk Aversion
-3. Learning Style
-4. None of the Above (Lack of Clear Indication)
+3. Information Processing Style
+4. Learning Style
 Why:
-- Looking at the page, there's no clearly visible or labeled "Program of POPL 2019" link that would be immediately obvious to ABI
-- Given her risk-averse nature, ABI would be hesitant to click on links without clear indication of where they lead
-- With her process-oriented learning style, ABI would expect clear instructions or indicators about how to find the program
-- Due to her low computer self-efficacy, she would not feel confident randomly exploring or clicking around to find the program
-- The page shows a schedule overview diagram and keynotes, but no obvious link or button labeled specifically for the full program
-- Without explicit guidance about where to find the program, ABI would likely feel uncertain about what action to take
-- The lack of clear navigation paths to the program information would make ABI uncomfortable about proceeding
-ABI would struggle to confidently identify where to click to find the program information, as there's no clear, explicitly labeled link or button for accessing the full conference program.</t>
+- Looking at the page, there's no clear, obvious link labeled "Program of POPL 2019" - ABI would be uncertain about where to click given her low computer self-efficacy
+- Given her risk-averse nature, ABI would be hesitant to click on unfamiliar or ambiguous links without clear indication of where they lead
+- The schedule overview diagram shows various acronyms and boxes but doesn't clearly indicate which might lead to the program information
+- ABI's process-oriented learning style means she prefers clear, step-by-step instructions, which are not provided here for finding the program
+- Her comprehensive information processing style would make her hesitant to click without being sure it's the right path to get the program information
+- There's no clear indication or instructions about how to access the detailed program, which would make ABI uncertain about what action to take
+The page lacks clear guidance about how to access the program information, making it difficult for ABI to confidently know what action to take given her characteristics and preferences.</t>
         </is>
       </c>
     </row>

--- a/outputs/MYRTLE1.xlsx
+++ b/outputs/MYRTLE1.xlsx
@@ -425,8 +425,8 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is likely motivated to find out what is being presented at the conference to decide whether attending would be beneficial. The page provides a schedule overview and links to papers and events, aligning with her comprehensive information processing style.</t>
+Facets: 1. Motivations
+Why: Abi is deciding whether to attend the conference, so knowing what is being presented is crucial for making an informed decision. This aligns with her motivation to gather relevant information to decide on attending the conference.</t>
         </is>
       </c>
     </row>
@@ -435,16 +435,16 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: The page provides a clear overview of the conference schedule and keynotes, which aligns with Abi's comprehensive information processing style. Scrolling down to gather more information is a natural step for her to take.</t>
+Why: Scrolling down to find more information aligns with Abi's comprehensive information processing style. The page layout suggests that more details are available below, which would motivate her to scroll down to gather the necessary information.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: By scrolling down, Abi can see the schedule overview and keynotes, which provide relevant information about what is being presented at the conference. This aligns with her comprehensive information processing style, confirming she is making progress toward her goal.</t>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: While scrolling down provides some information, it may not be comprehensive enough for Abi to feel confident she has all the details about what is being presented. The page offers an overview but lacks specific details about the presentations, which might leave Abi uncertain about her progress toward the goal.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: The page layout suggests that more information is available by scrolling down. This aligns with Abi's comprehensive information processing style, as she is likely to explore the page further to gather all necessary details.</t>
+Why: The page layout suggests that more information is available by scrolling down. This aligns with Abi's comprehensive information processing style, as she is likely to explore further to gather all necessary details.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While scrolling down provides some information, it may not be comprehensive enough for Abi to feel confident she has all the details she needs. The page offers an overview, but Abi might require more specific information about the presentations, which isn't fully detailed here.</t>
+Why: While scrolling down provides some information, it may not be comprehensive enough for Abi to feel confident she has all the details about what is being presented. The page offers an overview but lacks specific details about the presentations, which might leave Abi uncertain about her progress toward the goal.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 1. Motivations
-Why: The link labeled "Program of POPL 2019" is clearly visible and suggests it will provide detailed information about the conference presentations. This aligns with Abi's motivation to gather comprehensive information, making it likely she will know to click it.</t>
+Why: The link labeled "Program of POPL 2019" clearly indicates that it will provide information about the conference program. This aligns with Abi's motivation to find out what is being presented and her comprehensive information processing style, guiding her to click the link for more details.</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page contains a lot of detailed information, which might be overwhelming for Abi. While it provides comprehensive details, the sheer volume and complexity could make it difficult for her to process and feel confident she has all the necessary information.</t>
+Why: Although Abi lands on a page with detailed information about the program, the sheer volume and complexity of the data might overwhelm her. This could make it difficult for her to process all the information effectively, leaving her uncertain about her progress toward the goal.</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: The page is long and detailed, indicating that scrolling will reveal more information. This aligns with Abi's comprehensive information processing style, as she is likely to explore further to gather all necessary details.</t>
+Why: The page is structured in a way that suggests more information is available by scrolling. This aligns with Abi's comprehensive information processing style, as she is likely to scroll down to gather all necessary details about the conference program.</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: Although scrolling reveals more information, the page is densely packed with details, which may overwhelm Abi. She might struggle to process all the information effectively, making it difficult for her to feel confident that she has made progress toward her goal.</t>
+Why: Although scrolling provides access to more information, the extensive and detailed content may overwhelm Abi. This could make it difficult for her to determine if she has all the necessary information, leaving her uncertain about her progress toward the goal.</t>
         </is>
       </c>
     </row>
@@ -507,16 +507,16 @@
         <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page is densely packed with information, and it may not be immediately clear which link corresponds to the "distinguished paper." Without clear guidance or labeling, Abi might struggle to confidently identify and click the correct link, especially given her low computer self-efficacy and preference for process-oriented learning.</t>
+Why: The page is dense with information, and without clear guidance or labels indicating where the "distinguished paper" link is, Abi might struggle to identify the correct action. Her low confidence in unfamiliar tasks and preference for clear instructions make this step challenging.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 2. Information Processing Style
-Why: Although Abi lands on a page with information about distinguished papers, the error message and technical details might confuse her. This could hinder her confidence in knowing she did the right thing and in making progress toward her goal. The disruption may prevent her from feeling she has all the necessary information.</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on the distinguished paper, Abi lands on a page that clearly lists the distinguished papers, which directly aligns with her goal of finding out what is being presented. The information is organized and labeled, helping her feel confident that she is making progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
         <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page does not provide clear navigation options or instructions for returning to the main page. Abi might struggle to figure out how to go back, especially given her low computer self-efficacy and preference for clear, guided steps.</t>
+Why: The page does not provide clear navigation or instructions on how to return to the main page. Abi might struggle with this task due to her low confidence in unfamiliar tasks and preference for clear, guided instructions.</t>
         </is>
       </c>
     </row>
@@ -533,8 +533,8 @@
       <c r="A13" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: Returning to the main page allows Abi to access the tutorial information, which is clearly visible. This aligns with her motivation to gather comprehensive information and confirms she is making progress toward her goal.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Returning to the main page allows Abi to access additional information about the conference, such as tutorials. This aligns with her motivation to gather comprehensive details about the event, helping her feel she is making progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -542,8 +542,8 @@
       <c r="A14" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: The tutorial links are clearly labeled and visible on the page. This aligns with Abi's motivation to gather comprehensive information and her information processing style, making it likely she will know to click on them to explore further.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "TutorialFest" section is clearly labeled and visually distinct, making it easy for Abi to identify and click on a link to explore further. This aligns with her motivation to gather comprehensive information about the conference.</t>
         </is>
       </c>
     </row>
@@ -552,7 +552,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page provides limited information about the tutorials, mainly focusing on the date and general details. Abi may not feel she has made significant progress toward her goal of understanding what is being presented, as the specific content of the tutorials is not detailed here.</t>
+Why: The page provides limited information about the tutorials, mainly focusing on the date and general description. Abi may not feel she has made significant progress toward her goal of understanding what is being presented, as the details are insufficient.</t>
         </is>
       </c>
     </row>

--- a/outputs/MYRTLE1.xlsx
+++ b/outputs/MYRTLE1.xlsx
@@ -425,8 +425,8 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations
-Why: Abi is deciding whether to attend the conference, so knowing what is being presented is crucial for making an informed decision. This aligns with her motivation to gather relevant information to decide on attending the conference.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Abi is likely motivated to find out what is being presented at the conference to decide whether attending would be beneficial. The page provides a schedule overview and information about keynotes and tutorials, which aligns with her comprehensive information processing style. This information would help her assess the value of attending the conference.</t>
         </is>
       </c>
     </row>
@@ -435,124 +435,124 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: Scrolling down to find more information aligns with Abi's comprehensive information processing style. The page layout suggests that more details are available below, which would motivate her to scroll down to gather the necessary information.</t>
+Why: The page is structured with clear sections, including a schedule overview and keynotes, which aligns with Abi's comprehensive information processing style. Scrolling down to find more information is a logical step for her to take in order to gather the details she needs about the conference presentations.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: By scrolling down, Abi will see the schedule overview, keynotes, and tutorials, which are relevant to her goal of finding out what is being presented at the conference. This aligns with her comprehensive information processing style, and she will recognize that she is making progress toward her goal by accessing this information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: The page is well-organized with visible sections like the schedule overview and keynotes. Abi, with her comprehensive information processing style, will recognize that scrolling down is a logical step to gather more information about the conference presentations.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While scrolling down provides some information, it may not be comprehensive enough for Abi to feel confident she has all the details about what is being presented. The page offers an overview but lacks specific details about the presentations, which might leave Abi uncertain about her progress toward the goal.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: The page layout suggests that more information is available by scrolling down. This aligns with Abi's comprehensive information processing style, as she is likely to explore further to gather all necessary details.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+Why: While scrolling down provides some information, it may not give Abi all the details she needs about the presentations. The page has a schedule overview and keynotes, but without more specific details or links to further information, Abi might not feel confident that she has gathered everything necessary to make an informed decision.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 1. Motivations
+Why: The link labeled "Program of POPL 2019" is clearly visible and directly related to Abi's goal of finding out what is being presented at the conference. This aligns with her motivation to gather comprehensive information, and the page provides a clear path for her to follow.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While scrolling down provides some information, it may not be comprehensive enough for Abi to feel confident she has all the details about what is being presented. The page offers an overview but lacks specific details about the presentations, which might leave Abi uncertain about her progress toward the goal.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: The link labeled "Program of POPL 2019" clearly indicates that it will provide information about the conference program. This aligns with Abi's motivation to find out what is being presented and her comprehensive information processing style, guiding her to click the link for more details.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+Why: Although Abi lands on a page with detailed information about the program, the sheer volume of information might be overwhelming. This could make it difficult for her to process and find specific details she needs, affecting her confidence in making progress toward her goal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: Abi is likely to scroll down to gather more information, as this aligns with her comprehensive information processing style. The page is long and detailed, so scrolling is a necessary action to view all the content and find specific presentations of interest.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: Although Abi lands on a page with detailed information about the program, the sheer volume and complexity of the data might overwhelm her. This could make it difficult for her to process all the information effectively, leaving her uncertain about her progress toward the goal.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: The page is structured in a way that suggests more information is available by scrolling. This aligns with Abi's comprehensive information processing style, as she is likely to scroll down to gather all necessary details about the conference program.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+Why: Although scrolling down allows Abi to see more of the program, the extensive amount of information might be overwhelming. This could make it difficult for her to determine if she has found all the relevant details she needs, affecting her confidence in making progress toward her goal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page is densely packed with information, and it may not be immediately clear to Abi where the "distinguished paper" link is located. Without clear guidance or labeling, she might struggle to identify the correct action to take, affecting her confidence and ability to proceed effectively.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 1. Motivations
+Why: After clicking on the distinguished paper, Abi lands on a page that clearly lists the distinguished papers with their details. This aligns with her motivation to find specific presentations and her comprehensive information processing style, allowing her to see that she is making progress toward her goal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page does not provide a clear or intuitive way to navigate back to the main page to check tutorials. Without explicit instructions or a visible navigation option, Abi might struggle to know how to return, affecting her confidence and ability to proceed effectively.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 1. Motivations
+Why: Returning to the main page allows Abi to access the tutorial information, which is part of her goal to find out what is being presented at the conference. The page is organized with visible sections, helping her recognize that she is making progress toward her goal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 1. Motivations
+Why: The tutorial links are clearly labeled and visible on the page, aligning with Abi's motivation to explore the conference content. The page provides a straightforward way for her to access more detailed information about the tutorials, supporting her comprehensive information processing style.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: Although scrolling provides access to more information, the extensive and detailed content may overwhelm Abi. This could make it difficult for her to determine if she has all the necessary information, leaving her uncertain about her progress toward the goal.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page is dense with information, and without clear guidance or labels indicating where the "distinguished paper" link is, Abi might struggle to identify the correct action. Her low confidence in unfamiliar tasks and preference for clear instructions make this step challenging.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on the distinguished paper, Abi lands on a page that clearly lists the distinguished papers, which directly aligns with her goal of finding out what is being presented. The information is organized and labeled, helping her feel confident that she is making progress toward her goal.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page does not provide clear navigation or instructions on how to return to the main page. Abi might struggle with this task due to her low confidence in unfamiliar tasks and preference for clear, guided instructions.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Returning to the main page allows Abi to access additional information about the conference, such as tutorials. This aligns with her motivation to gather comprehensive details about the event, helping her feel she is making progress toward her goal.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "TutorialFest" section is clearly labeled and visually distinct, making it easy for Abi to identify and click on a link to explore further. This aligns with her motivation to gather comprehensive information about the conference.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page provides limited information about the tutorials, mainly focusing on the date and general description. Abi may not feel she has made significant progress toward her goal of understanding what is being presented, as the details are insufficient.</t>
+Why: The page provides limited information about the tutorials, mainly focusing on the date and general description. Abi may not feel she has gathered enough specific details about the tutorials themselves, which could hinder her confidence in making progress toward her goal.</t>
         </is>
       </c>
     </row>
